--- a/Mars_competitive_practice/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/Mars_competitive_practice/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hui\source\repos\MARS\Mars_competitive_practice\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43677F6E-8FD5-494B-B380-6D1E3EAD8598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442E3925-1964-45B4-8439-960643A6D7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2510" yWindow="630" windowWidth="14400" windowHeight="7460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="SearchSkill" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Url</t>
   </si>
@@ -136,6 +137,21 @@
   </si>
   <si>
     <t>Would like to provide selenium training</t>
+  </si>
+  <si>
+    <t>Test1234!</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>SkillTitle</t>
+  </si>
+  <si>
+    <t>SkillUser</t>
+  </si>
+  <si>
+    <t>bi charu</t>
   </si>
 </sst>
 </file>
@@ -599,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,7 +645,7 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -646,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,4 +786,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D05678C-5A3E-4B47-905F-D4957B57DFBD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>